--- a/Meet up without Smartphone.xlsx
+++ b/Meet up without Smartphone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a3b79f03f0dba045/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F177B5B4-D05A-1A4A-B3AE-E8F635AED2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B42B126-872D-0542-9F6F-D428A8E852D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5000" yWindow="2720" windowWidth="7500" windowHeight="7360" xr2:uid="{169A6EB1-7A6B-433D-89FD-4BB47D2FE302}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="80">
   <si>
     <t>Theme</t>
   </si>
@@ -260,10 +260,16 @@
     <t>美味しいところといえば</t>
   </si>
   <si>
-    <t>今年のニュースといえば</t>
-  </si>
-  <si>
-    <t>今年の思い出</t>
+    <t>2022年のニュースといえば</t>
+  </si>
+  <si>
+    <t>2022年の思い出</t>
+  </si>
+  <si>
+    <t>大学生になってからの思い出</t>
+  </si>
+  <si>
+    <t>荒川といえば</t>
   </si>
 </sst>
 </file>
@@ -616,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B45CA0D-835A-4717-9A09-7E32BADC7300}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -644,7 +650,7 @@
       </c>
       <c r="C2">
         <f ca="1">RAND()</f>
-        <v>3.7999759523015375E-2</v>
+        <v>0.52762736408215793</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -653,7 +659,7 @@
       </c>
       <c r="C3">
         <f ca="1">RAND()</f>
-        <v>0.29318226091725663</v>
+        <v>0.22293084375716243</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -662,7 +668,7 @@
       </c>
       <c r="C4">
         <f ca="1">RAND()</f>
-        <v>2.4496976241502932E-2</v>
+        <v>0.25788926287080272</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -671,7 +677,7 @@
       </c>
       <c r="C5">
         <f ca="1">RAND()</f>
-        <v>0.56057525161887189</v>
+        <v>0.28712072625564311</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -680,7 +686,7 @@
       </c>
       <c r="C6">
         <f ca="1">RAND()</f>
-        <v>0.70163814171545025</v>
+        <v>0.40751633987756475</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -689,7 +695,7 @@
       </c>
       <c r="C7">
         <f ca="1">RAND()</f>
-        <v>0.28890732469315361</v>
+        <v>0.88309503432468361</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -698,7 +704,7 @@
       </c>
       <c r="C8">
         <f ca="1">RAND()</f>
-        <v>0.84143728109652405</v>
+        <v>0.35089261918324821</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -707,7 +713,7 @@
       </c>
       <c r="C9">
         <f ca="1">RAND()</f>
-        <v>0.13203924780250298</v>
+        <v>0.68981396979540455</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -716,7 +722,7 @@
       </c>
       <c r="C10">
         <f ca="1">RAND()</f>
-        <v>0.44111032687009366</v>
+        <v>0.57935739843324274</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -725,7 +731,7 @@
       </c>
       <c r="C11">
         <f ca="1">RAND()</f>
-        <v>0.73044354275159318</v>
+        <v>4.8782354738902689E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -734,7 +740,7 @@
       </c>
       <c r="C12">
         <f ca="1">RAND()</f>
-        <v>0.29821933314902815</v>
+        <v>0.22180456400776549</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -743,7 +749,7 @@
       </c>
       <c r="C13">
         <f ca="1">RAND()</f>
-        <v>0.61354818507751852</v>
+        <v>0.51707587706816527</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -752,7 +758,7 @@
       </c>
       <c r="C14">
         <f ca="1">RAND()</f>
-        <v>0.53653019262486157</v>
+        <v>0.82943205728244629</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -761,7 +767,7 @@
       </c>
       <c r="C15">
         <f ca="1">RAND()</f>
-        <v>0.39454510602317072</v>
+        <v>0.11653523358267581</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -770,7 +776,7 @@
       </c>
       <c r="C16">
         <f ca="1">RAND()</f>
-        <v>0.7052483085854736</v>
+        <v>0.95374809973594976</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -779,7 +785,7 @@
       </c>
       <c r="C17">
         <f ca="1">RAND()</f>
-        <v>0.61104796152253082</v>
+        <v>0.50813864804928965</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -788,7 +794,7 @@
       </c>
       <c r="C18">
         <f ca="1">RAND()</f>
-        <v>0.35487710580261278</v>
+        <v>0.70522276184869792</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -797,7 +803,7 @@
       </c>
       <c r="C19">
         <f ca="1">RAND()</f>
-        <v>0.39004500075265514</v>
+        <v>0.76706355641547386</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -806,7 +812,7 @@
       </c>
       <c r="C20">
         <f ca="1">RAND()</f>
-        <v>0.67648482611018534</v>
+        <v>0.82542639436884346</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -815,7 +821,7 @@
       </c>
       <c r="C21">
         <f ca="1">RAND()</f>
-        <v>0.65726194731256615</v>
+        <v>0.31391936095987927</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -824,7 +830,7 @@
       </c>
       <c r="C22">
         <f ca="1">RAND()</f>
-        <v>2.4266719205956466E-4</v>
+        <v>0.41676341775946235</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -833,7 +839,7 @@
       </c>
       <c r="C23">
         <f ca="1">RAND()</f>
-        <v>0.25322021679330631</v>
+        <v>0.27936820646555327</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -842,7 +848,7 @@
       </c>
       <c r="C24">
         <f ca="1">RAND()</f>
-        <v>0.38498146359293783</v>
+        <v>0.36400752059179353</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -851,7 +857,7 @@
       </c>
       <c r="C25">
         <f ca="1">RAND()</f>
-        <v>0.39205186176637163</v>
+        <v>0.15196062723452164</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -860,7 +866,7 @@
       </c>
       <c r="C26">
         <f ca="1">RAND()</f>
-        <v>0.26338546196784962</v>
+        <v>0.89263056088813297</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -869,7 +875,7 @@
       </c>
       <c r="C27">
         <f ca="1">RAND()</f>
-        <v>0.51733482170252865</v>
+        <v>0.57231297337493847</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -878,7 +884,7 @@
       </c>
       <c r="C28">
         <f ca="1">RAND()</f>
-        <v>0.62503827941340218</v>
+        <v>0.23794846928986313</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -887,7 +893,7 @@
       </c>
       <c r="C29">
         <f ca="1">RAND()</f>
-        <v>0.15167555010917422</v>
+        <v>0.59616042732803098</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -896,7 +902,7 @@
       </c>
       <c r="C30">
         <f ca="1">RAND()</f>
-        <v>0.96297579567548341</v>
+        <v>3.3516530383905674E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -905,7 +911,7 @@
       </c>
       <c r="C31">
         <f ca="1">RAND()</f>
-        <v>0.40114586807148944</v>
+        <v>0.78255495983984535</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -914,7 +920,7 @@
       </c>
       <c r="C32">
         <f ca="1">RAND()</f>
-        <v>0.32802069870213502</v>
+        <v>0.76892019638940634</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -923,7 +929,7 @@
       </c>
       <c r="C33">
         <f ca="1">RAND()</f>
-        <v>0.37073707816769375</v>
+        <v>0.72253988321892959</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -932,7 +938,7 @@
       </c>
       <c r="C34">
         <f ca="1">RAND()</f>
-        <v>0.48637840001125088</v>
+        <v>0.43245451513826716</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -941,7 +947,7 @@
       </c>
       <c r="C35">
         <f ca="1">RAND()</f>
-        <v>0.83177906436074589</v>
+        <v>0.37449155635144282</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -950,7 +956,7 @@
       </c>
       <c r="C36">
         <f ca="1">RAND()</f>
-        <v>0.23150497109871826</v>
+        <v>0.13359150171743739</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -959,7 +965,7 @@
       </c>
       <c r="C37">
         <f ca="1">RAND()</f>
-        <v>0.34939163171001342</v>
+        <v>0.76848339260167531</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -968,7 +974,7 @@
       </c>
       <c r="C38">
         <f ca="1">RAND()</f>
-        <v>0.97353940210758916</v>
+        <v>0.48396660321105256</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -977,7 +983,7 @@
       </c>
       <c r="C39">
         <f ca="1">RAND()</f>
-        <v>0.89320762479155291</v>
+        <v>0.97188652258875496</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -986,7 +992,7 @@
       </c>
       <c r="C40">
         <f ca="1">RAND()</f>
-        <v>0.76381558740938016</v>
+        <v>0.74628924568007649</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -995,7 +1001,7 @@
       </c>
       <c r="C41">
         <f ca="1">RAND()</f>
-        <v>0.80423188712899407</v>
+        <v>0.34535167683456791</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1004,7 +1010,7 @@
       </c>
       <c r="C42">
         <f ca="1">RAND()</f>
-        <v>0.5106544945513708</v>
+        <v>0.64627401294151909</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1013,7 +1019,7 @@
       </c>
       <c r="C43">
         <f ca="1">RAND()</f>
-        <v>6.0215115173700706E-4</v>
+        <v>0.1067949767774935</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1022,7 +1028,7 @@
       </c>
       <c r="C44">
         <f ca="1">RAND()</f>
-        <v>0.58230128853137542</v>
+        <v>0.49346758026560111</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1031,7 +1037,7 @@
       </c>
       <c r="C45">
         <f ca="1">RAND()</f>
-        <v>0.58407822706515589</v>
+        <v>0.786111768933349</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1040,7 +1046,7 @@
       </c>
       <c r="C46">
         <f ca="1">RAND()</f>
-        <v>0.69114629376481529</v>
+        <v>0.15639921780451316</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1049,7 +1055,7 @@
       </c>
       <c r="C47">
         <f ca="1">RAND()</f>
-        <v>0.3803885002834736</v>
+        <v>0.15167321318358851</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1058,7 +1064,7 @@
       </c>
       <c r="C48">
         <f ca="1">RAND()</f>
-        <v>0.38074327468299096</v>
+        <v>0.24196640729810115</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1067,7 +1073,7 @@
       </c>
       <c r="C49">
         <f ca="1">RAND()</f>
-        <v>0.2667054220398104</v>
+        <v>0.59794703575153596</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1076,7 +1082,7 @@
       </c>
       <c r="C50">
         <f ca="1">RAND()</f>
-        <v>0.77026654937250472</v>
+        <v>0.59957268160236254</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1085,7 +1091,7 @@
       </c>
       <c r="C51">
         <f ca="1">RAND()</f>
-        <v>0.81594752503138368</v>
+        <v>0.54798328517592021</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1094,7 +1100,7 @@
       </c>
       <c r="C52">
         <f ca="1">RAND()</f>
-        <v>0.11789321724097879</v>
+        <v>0.27554892814432419</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1103,7 +1109,7 @@
       </c>
       <c r="C53">
         <f t="shared" ref="C53:C56" ca="1" si="0">RAND()</f>
-        <v>0.24130320599529087</v>
+        <v>0.82401140282496044</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1112,7 +1118,7 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77105845421186137</v>
+        <v>0.46848453965162873</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1121,7 +1127,7 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34961455809105346</v>
+        <v>0.49946205660109033</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1130,7 +1136,7 @@
       </c>
       <c r="C56">
         <f ca="1">RAND()</f>
-        <v>0.21472196848075475</v>
+        <v>0.90818626849137385</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1139,7 +1145,7 @@
       </c>
       <c r="C57">
         <f ca="1">RAND()</f>
-        <v>0.20367776162512252</v>
+        <v>0.25537541636086236</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1148,7 +1154,7 @@
       </c>
       <c r="C58">
         <f ca="1">RAND()</f>
-        <v>0.52663010455521486</v>
+        <v>0.90605776144515315</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1157,7 +1163,7 @@
       </c>
       <c r="C59">
         <f t="shared" ref="C59:C76" ca="1" si="1">RAND()</f>
-        <v>0.47921171433076915</v>
+        <v>0.87561244525347126</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1166,7 +1172,7 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70839037360355572</v>
+        <v>0.70305335832212557</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1175,7 +1181,7 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3393979978688852E-2</v>
+        <v>0.21588706563598603</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1184,7 +1190,7 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59198841307276806</v>
+        <v>0.60673310314455409</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1193,7 +1199,7 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99021851339175937</v>
+        <v>0.46278720892899028</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1202,7 +1208,7 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1963974577201339E-2</v>
+        <v>0.40739601010191995</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1211,7 +1217,7 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20503822221844581</v>
+        <v>0.14422556948258103</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1220,7 +1226,7 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47395543853329314</v>
+        <v>0.59485720477745807</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1229,7 +1235,7 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96170701737844322</v>
+        <v>0.21993542634235741</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1238,7 +1244,7 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39222220432725141</v>
+        <v>0.81794737169188425</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1247,7 +1253,7 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68065323998217586</v>
+        <v>0.24328556495803855</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1256,7 +1262,7 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24006200122950905</v>
+        <v>0.61990121524786779</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1265,7 +1271,7 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98055491567176878</v>
+        <v>0.32249941163111362</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1274,7 +1280,7 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11338367441675623</v>
+        <v>0.55476548801273806</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1283,7 +1289,7 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6019178314192932E-2</v>
+        <v>0.97215446230506664</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1292,7 +1298,25 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71899961042670468</v>
+        <v>0.41192591485263075</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.10395223331617998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.32265543859590273</v>
       </c>
     </row>
   </sheetData>

--- a/Meet up without Smartphone.xlsx
+++ b/Meet up without Smartphone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a3b79f03f0dba045/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B42B126-872D-0542-9F6F-D428A8E852D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E6D4013-3FCB-6D45-8CCB-FEB7ED129DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5000" yWindow="2720" windowWidth="7500" windowHeight="7360" xr2:uid="{169A6EB1-7A6B-433D-89FD-4BB47D2FE302}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Theme</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>荒川といえば</t>
+  </si>
+  <si>
+    <t>銀行といえば</t>
   </si>
 </sst>
 </file>
@@ -622,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B45CA0D-835A-4717-9A09-7E32BADC7300}">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -650,7 +653,7 @@
       </c>
       <c r="C2">
         <f ca="1">RAND()</f>
-        <v>0.52762736408215793</v>
+        <v>0.67438651097739544</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -659,7 +662,7 @@
       </c>
       <c r="C3">
         <f ca="1">RAND()</f>
-        <v>0.22293084375716243</v>
+        <v>0.27646274010600236</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -668,7 +671,7 @@
       </c>
       <c r="C4">
         <f ca="1">RAND()</f>
-        <v>0.25788926287080272</v>
+        <v>0.30362410193438572</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -677,7 +680,7 @@
       </c>
       <c r="C5">
         <f ca="1">RAND()</f>
-        <v>0.28712072625564311</v>
+        <v>0.13265669682350167</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -686,7 +689,7 @@
       </c>
       <c r="C6">
         <f ca="1">RAND()</f>
-        <v>0.40751633987756475</v>
+        <v>0.54049557090605704</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -695,7 +698,7 @@
       </c>
       <c r="C7">
         <f ca="1">RAND()</f>
-        <v>0.88309503432468361</v>
+        <v>0.63739190046237459</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -704,7 +707,7 @@
       </c>
       <c r="C8">
         <f ca="1">RAND()</f>
-        <v>0.35089261918324821</v>
+        <v>0.34782508300017279</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -713,7 +716,7 @@
       </c>
       <c r="C9">
         <f ca="1">RAND()</f>
-        <v>0.68981396979540455</v>
+        <v>0.52050420350712878</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -722,7 +725,7 @@
       </c>
       <c r="C10">
         <f ca="1">RAND()</f>
-        <v>0.57935739843324274</v>
+        <v>0.17871563897625065</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -731,7 +734,7 @@
       </c>
       <c r="C11">
         <f ca="1">RAND()</f>
-        <v>4.8782354738902689E-2</v>
+        <v>0.3237856097789078</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -740,7 +743,7 @@
       </c>
       <c r="C12">
         <f ca="1">RAND()</f>
-        <v>0.22180456400776549</v>
+        <v>0.86740880129382114</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -749,7 +752,7 @@
       </c>
       <c r="C13">
         <f ca="1">RAND()</f>
-        <v>0.51707587706816527</v>
+        <v>0.33791166620005464</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -758,7 +761,7 @@
       </c>
       <c r="C14">
         <f ca="1">RAND()</f>
-        <v>0.82943205728244629</v>
+        <v>2.0946983733539426E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -767,7 +770,7 @@
       </c>
       <c r="C15">
         <f ca="1">RAND()</f>
-        <v>0.11653523358267581</v>
+        <v>0.39919079020891224</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -776,7 +779,7 @@
       </c>
       <c r="C16">
         <f ca="1">RAND()</f>
-        <v>0.95374809973594976</v>
+        <v>0.42789418544687674</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -785,7 +788,7 @@
       </c>
       <c r="C17">
         <f ca="1">RAND()</f>
-        <v>0.50813864804928965</v>
+        <v>0.59064591018777668</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -794,7 +797,7 @@
       </c>
       <c r="C18">
         <f ca="1">RAND()</f>
-        <v>0.70522276184869792</v>
+        <v>0.56069410440072232</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -803,7 +806,7 @@
       </c>
       <c r="C19">
         <f ca="1">RAND()</f>
-        <v>0.76706355641547386</v>
+        <v>0.95445675865933288</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -812,7 +815,7 @@
       </c>
       <c r="C20">
         <f ca="1">RAND()</f>
-        <v>0.82542639436884346</v>
+        <v>4.9513496550252833E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -821,7 +824,7 @@
       </c>
       <c r="C21">
         <f ca="1">RAND()</f>
-        <v>0.31391936095987927</v>
+        <v>0.95435400419773186</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -830,7 +833,7 @@
       </c>
       <c r="C22">
         <f ca="1">RAND()</f>
-        <v>0.41676341775946235</v>
+        <v>0.98001442798191474</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -839,7 +842,7 @@
       </c>
       <c r="C23">
         <f ca="1">RAND()</f>
-        <v>0.27936820646555327</v>
+        <v>0.87998026189298439</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -848,7 +851,7 @@
       </c>
       <c r="C24">
         <f ca="1">RAND()</f>
-        <v>0.36400752059179353</v>
+        <v>0.39735140523771595</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -857,7 +860,7 @@
       </c>
       <c r="C25">
         <f ca="1">RAND()</f>
-        <v>0.15196062723452164</v>
+        <v>0.29592164685175848</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -866,7 +869,7 @@
       </c>
       <c r="C26">
         <f ca="1">RAND()</f>
-        <v>0.89263056088813297</v>
+        <v>0.91877984033581528</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -875,7 +878,7 @@
       </c>
       <c r="C27">
         <f ca="1">RAND()</f>
-        <v>0.57231297337493847</v>
+        <v>0.86293622492479038</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -884,7 +887,7 @@
       </c>
       <c r="C28">
         <f ca="1">RAND()</f>
-        <v>0.23794846928986313</v>
+        <v>0.79862869782757395</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -893,7 +896,7 @@
       </c>
       <c r="C29">
         <f ca="1">RAND()</f>
-        <v>0.59616042732803098</v>
+        <v>0.37451002598080207</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -902,7 +905,7 @@
       </c>
       <c r="C30">
         <f ca="1">RAND()</f>
-        <v>3.3516530383905674E-2</v>
+        <v>0.46393104157757026</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -911,7 +914,7 @@
       </c>
       <c r="C31">
         <f ca="1">RAND()</f>
-        <v>0.78255495983984535</v>
+        <v>0.79091373135106047</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -920,7 +923,7 @@
       </c>
       <c r="C32">
         <f ca="1">RAND()</f>
-        <v>0.76892019638940634</v>
+        <v>6.9994502251546797E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -929,7 +932,7 @@
       </c>
       <c r="C33">
         <f ca="1">RAND()</f>
-        <v>0.72253988321892959</v>
+        <v>0.1732941073059574</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -938,7 +941,7 @@
       </c>
       <c r="C34">
         <f ca="1">RAND()</f>
-        <v>0.43245451513826716</v>
+        <v>0.7132887887261492</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -947,7 +950,7 @@
       </c>
       <c r="C35">
         <f ca="1">RAND()</f>
-        <v>0.37449155635144282</v>
+        <v>0.28239622854155655</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -956,7 +959,7 @@
       </c>
       <c r="C36">
         <f ca="1">RAND()</f>
-        <v>0.13359150171743739</v>
+        <v>0.56442882758066426</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -965,7 +968,7 @@
       </c>
       <c r="C37">
         <f ca="1">RAND()</f>
-        <v>0.76848339260167531</v>
+        <v>0.47950988097165403</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -974,7 +977,7 @@
       </c>
       <c r="C38">
         <f ca="1">RAND()</f>
-        <v>0.48396660321105256</v>
+        <v>0.81453431785977815</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -983,7 +986,7 @@
       </c>
       <c r="C39">
         <f ca="1">RAND()</f>
-        <v>0.97188652258875496</v>
+        <v>0.81229924077483706</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -992,7 +995,7 @@
       </c>
       <c r="C40">
         <f ca="1">RAND()</f>
-        <v>0.74628924568007649</v>
+        <v>0.70136871643879262</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1001,7 +1004,7 @@
       </c>
       <c r="C41">
         <f ca="1">RAND()</f>
-        <v>0.34535167683456791</v>
+        <v>0.41856968099827185</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1010,7 +1013,7 @@
       </c>
       <c r="C42">
         <f ca="1">RAND()</f>
-        <v>0.64627401294151909</v>
+        <v>0.29939957161636077</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1019,7 +1022,7 @@
       </c>
       <c r="C43">
         <f ca="1">RAND()</f>
-        <v>0.1067949767774935</v>
+        <v>0.48829790492081093</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1028,7 +1031,7 @@
       </c>
       <c r="C44">
         <f ca="1">RAND()</f>
-        <v>0.49346758026560111</v>
+        <v>0.10987985444709303</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1037,7 +1040,7 @@
       </c>
       <c r="C45">
         <f ca="1">RAND()</f>
-        <v>0.786111768933349</v>
+        <v>2.1877313621323946E-2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1046,7 +1049,7 @@
       </c>
       <c r="C46">
         <f ca="1">RAND()</f>
-        <v>0.15639921780451316</v>
+        <v>0.38811367857930779</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1055,7 +1058,7 @@
       </c>
       <c r="C47">
         <f ca="1">RAND()</f>
-        <v>0.15167321318358851</v>
+        <v>0.66395994088770816</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1064,7 +1067,7 @@
       </c>
       <c r="C48">
         <f ca="1">RAND()</f>
-        <v>0.24196640729810115</v>
+        <v>0.51975527633899543</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1073,7 +1076,7 @@
       </c>
       <c r="C49">
         <f ca="1">RAND()</f>
-        <v>0.59794703575153596</v>
+        <v>0.23385707405432365</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1082,7 +1085,7 @@
       </c>
       <c r="C50">
         <f ca="1">RAND()</f>
-        <v>0.59957268160236254</v>
+        <v>0.96796141814541914</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1091,7 +1094,7 @@
       </c>
       <c r="C51">
         <f ca="1">RAND()</f>
-        <v>0.54798328517592021</v>
+        <v>0.75672809403344277</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1100,7 +1103,7 @@
       </c>
       <c r="C52">
         <f ca="1">RAND()</f>
-        <v>0.27554892814432419</v>
+        <v>9.633418560796092E-2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1109,7 +1112,7 @@
       </c>
       <c r="C53">
         <f t="shared" ref="C53:C56" ca="1" si="0">RAND()</f>
-        <v>0.82401140282496044</v>
+        <v>0.37264561135397067</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1118,7 +1121,7 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46848453965162873</v>
+        <v>0.41004206696143153</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1127,7 +1130,7 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49946205660109033</v>
+        <v>0.88685341270662132</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1136,7 +1139,7 @@
       </c>
       <c r="C56">
         <f ca="1">RAND()</f>
-        <v>0.90818626849137385</v>
+        <v>9.0133601048448808E-3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1145,7 +1148,7 @@
       </c>
       <c r="C57">
         <f ca="1">RAND()</f>
-        <v>0.25537541636086236</v>
+        <v>0.60882524818628825</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1154,7 +1157,7 @@
       </c>
       <c r="C58">
         <f ca="1">RAND()</f>
-        <v>0.90605776144515315</v>
+        <v>0.13871212133592592</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1163,7 +1166,7 @@
       </c>
       <c r="C59">
         <f t="shared" ref="C59:C76" ca="1" si="1">RAND()</f>
-        <v>0.87561244525347126</v>
+        <v>0.88319477056665452</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1172,7 +1175,7 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70305335832212557</v>
+        <v>7.8154915288386806E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1181,7 +1184,7 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21588706563598603</v>
+        <v>0.9763990263186727</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1190,7 +1193,7 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60673310314455409</v>
+        <v>0.75238983235822443</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1199,7 +1202,7 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46278720892899028</v>
+        <v>0.28138779398524283</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1208,7 +1211,7 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40739601010191995</v>
+        <v>0.3684417631248148</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1217,7 +1220,7 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14422556948258103</v>
+        <v>0.51581225547452558</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1226,7 +1229,7 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59485720477745807</v>
+        <v>0.89128461402930492</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1235,7 +1238,7 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21993542634235741</v>
+        <v>0.43981422130020775</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1244,7 +1247,7 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81794737169188425</v>
+        <v>0.33161485739558438</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1253,7 +1256,7 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24328556495803855</v>
+        <v>0.23590459640679506</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1262,7 +1265,7 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61990121524786779</v>
+        <v>0.34502957171740423</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1271,7 +1274,7 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32249941163111362</v>
+        <v>5.1272394454782155E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1280,7 +1283,7 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55476548801273806</v>
+        <v>0.13078061385738737</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1289,7 +1292,7 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97215446230506664</v>
+        <v>9.3883263559065622E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1298,7 +1301,7 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41192591485263075</v>
+        <v>0.40239546641095703</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -1307,7 +1310,7 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10395223331617998</v>
+        <v>0.48024634575274883</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -1315,8 +1318,17 @@
         <v>77</v>
       </c>
       <c r="C76">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.32265543859590273</v>
+        <f ca="1">RAND()</f>
+        <v>0.26321124184824174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77">
+        <f ca="1">RAND()</f>
+        <v>0.41172653060208986</v>
       </c>
     </row>
   </sheetData>

--- a/Meet up without Smartphone.xlsx
+++ b/Meet up without Smartphone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a3b79f03f0dba045/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E6D4013-3FCB-6D45-8CCB-FEB7ED129DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75F69CBE-C854-2643-81E4-CE3FE7C4D903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5000" yWindow="2720" windowWidth="7500" windowHeight="7360" xr2:uid="{169A6EB1-7A6B-433D-89FD-4BB47D2FE302}"/>
   </bookViews>
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B45CA0D-835A-4717-9A09-7E32BADC7300}">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -653,7 +653,7 @@
       </c>
       <c r="C2">
         <f ca="1">RAND()</f>
-        <v>0.67438651097739544</v>
+        <v>0.34059179004509821</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -662,7 +662,7 @@
       </c>
       <c r="C3">
         <f ca="1">RAND()</f>
-        <v>0.27646274010600236</v>
+        <v>0.31127417338853813</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -671,7 +671,7 @@
       </c>
       <c r="C4">
         <f ca="1">RAND()</f>
-        <v>0.30362410193438572</v>
+        <v>9.9202273007544917E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -680,7 +680,7 @@
       </c>
       <c r="C5">
         <f ca="1">RAND()</f>
-        <v>0.13265669682350167</v>
+        <v>0.26886153140181657</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -689,7 +689,7 @@
       </c>
       <c r="C6">
         <f ca="1">RAND()</f>
-        <v>0.54049557090605704</v>
+        <v>0.22173267478630021</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -698,7 +698,7 @@
       </c>
       <c r="C7">
         <f ca="1">RAND()</f>
-        <v>0.63739190046237459</v>
+        <v>7.3723348987135839E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -707,7 +707,7 @@
       </c>
       <c r="C8">
         <f ca="1">RAND()</f>
-        <v>0.34782508300017279</v>
+        <v>0.62616273200080419</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -716,7 +716,7 @@
       </c>
       <c r="C9">
         <f ca="1">RAND()</f>
-        <v>0.52050420350712878</v>
+        <v>0.67643672061669102</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -725,7 +725,7 @@
       </c>
       <c r="C10">
         <f ca="1">RAND()</f>
-        <v>0.17871563897625065</v>
+        <v>0.58418846046288009</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -734,7 +734,7 @@
       </c>
       <c r="C11">
         <f ca="1">RAND()</f>
-        <v>0.3237856097789078</v>
+        <v>0.44264139588341367</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -743,7 +743,7 @@
       </c>
       <c r="C12">
         <f ca="1">RAND()</f>
-        <v>0.86740880129382114</v>
+        <v>0.73762311121694268</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -752,7 +752,7 @@
       </c>
       <c r="C13">
         <f ca="1">RAND()</f>
-        <v>0.33791166620005464</v>
+        <v>0.70987078341230925</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -761,7 +761,7 @@
       </c>
       <c r="C14">
         <f ca="1">RAND()</f>
-        <v>2.0946983733539426E-2</v>
+        <v>0.34987747727930241</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -770,7 +770,7 @@
       </c>
       <c r="C15">
         <f ca="1">RAND()</f>
-        <v>0.39919079020891224</v>
+        <v>0.83930213086865857</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -779,7 +779,7 @@
       </c>
       <c r="C16">
         <f ca="1">RAND()</f>
-        <v>0.42789418544687674</v>
+        <v>0.31495799726235951</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -788,7 +788,7 @@
       </c>
       <c r="C17">
         <f ca="1">RAND()</f>
-        <v>0.59064591018777668</v>
+        <v>6.8742960402603526E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -797,7 +797,7 @@
       </c>
       <c r="C18">
         <f ca="1">RAND()</f>
-        <v>0.56069410440072232</v>
+        <v>0.80961841139460089</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -806,7 +806,7 @@
       </c>
       <c r="C19">
         <f ca="1">RAND()</f>
-        <v>0.95445675865933288</v>
+        <v>0.73449527201609632</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -815,7 +815,7 @@
       </c>
       <c r="C20">
         <f ca="1">RAND()</f>
-        <v>4.9513496550252833E-2</v>
+        <v>0.19446455390573136</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -824,7 +824,7 @@
       </c>
       <c r="C21">
         <f ca="1">RAND()</f>
-        <v>0.95435400419773186</v>
+        <v>0.48709917705152894</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -833,7 +833,7 @@
       </c>
       <c r="C22">
         <f ca="1">RAND()</f>
-        <v>0.98001442798191474</v>
+        <v>0.88565628670846319</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -842,7 +842,7 @@
       </c>
       <c r="C23">
         <f ca="1">RAND()</f>
-        <v>0.87998026189298439</v>
+        <v>0.32115032282200429</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -851,7 +851,7 @@
       </c>
       <c r="C24">
         <f ca="1">RAND()</f>
-        <v>0.39735140523771595</v>
+        <v>0.57807121814564655</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -860,7 +860,7 @@
       </c>
       <c r="C25">
         <f ca="1">RAND()</f>
-        <v>0.29592164685175848</v>
+        <v>0.99017407513538347</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -869,7 +869,7 @@
       </c>
       <c r="C26">
         <f ca="1">RAND()</f>
-        <v>0.91877984033581528</v>
+        <v>0.31322461060020645</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -878,7 +878,7 @@
       </c>
       <c r="C27">
         <f ca="1">RAND()</f>
-        <v>0.86293622492479038</v>
+        <v>0.31999239874065788</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -887,7 +887,7 @@
       </c>
       <c r="C28">
         <f ca="1">RAND()</f>
-        <v>0.79862869782757395</v>
+        <v>0.60784909235683893</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -896,7 +896,7 @@
       </c>
       <c r="C29">
         <f ca="1">RAND()</f>
-        <v>0.37451002598080207</v>
+        <v>0.96951116397352355</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -905,7 +905,7 @@
       </c>
       <c r="C30">
         <f ca="1">RAND()</f>
-        <v>0.46393104157757026</v>
+        <v>0.13934021937455598</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -914,7 +914,7 @@
       </c>
       <c r="C31">
         <f ca="1">RAND()</f>
-        <v>0.79091373135106047</v>
+        <v>0.10079074267245824</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -923,7 +923,7 @@
       </c>
       <c r="C32">
         <f ca="1">RAND()</f>
-        <v>6.9994502251546797E-2</v>
+        <v>0.75651222288172504</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -932,7 +932,7 @@
       </c>
       <c r="C33">
         <f ca="1">RAND()</f>
-        <v>0.1732941073059574</v>
+        <v>9.9697331203204564E-3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -941,7 +941,7 @@
       </c>
       <c r="C34">
         <f ca="1">RAND()</f>
-        <v>0.7132887887261492</v>
+        <v>0.26092979873946398</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -950,7 +950,7 @@
       </c>
       <c r="C35">
         <f ca="1">RAND()</f>
-        <v>0.28239622854155655</v>
+        <v>0.81494765644452927</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -959,7 +959,7 @@
       </c>
       <c r="C36">
         <f ca="1">RAND()</f>
-        <v>0.56442882758066426</v>
+        <v>0.62086095922780293</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -968,7 +968,7 @@
       </c>
       <c r="C37">
         <f ca="1">RAND()</f>
-        <v>0.47950988097165403</v>
+        <v>0.28348113414609466</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
       </c>
       <c r="C38">
         <f ca="1">RAND()</f>
-        <v>0.81453431785977815</v>
+        <v>0.68460505242882286</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -986,7 +986,7 @@
       </c>
       <c r="C39">
         <f ca="1">RAND()</f>
-        <v>0.81229924077483706</v>
+        <v>0.11819455100040632</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -995,7 +995,7 @@
       </c>
       <c r="C40">
         <f ca="1">RAND()</f>
-        <v>0.70136871643879262</v>
+        <v>0.38965851461330059</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C41">
         <f ca="1">RAND()</f>
-        <v>0.41856968099827185</v>
+        <v>0.94243065708010898</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="C42">
         <f ca="1">RAND()</f>
-        <v>0.29939957161636077</v>
+        <v>0.7250604308995573</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C43">
         <f ca="1">RAND()</f>
-        <v>0.48829790492081093</v>
+        <v>9.0875694340041502E-2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="C44">
         <f ca="1">RAND()</f>
-        <v>0.10987985444709303</v>
+        <v>0.41885581996554655</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C45">
         <f ca="1">RAND()</f>
-        <v>2.1877313621323946E-2</v>
+        <v>0.74297900260638206</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="C46">
         <f ca="1">RAND()</f>
-        <v>0.38811367857930779</v>
+        <v>0.38967796504220886</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C47">
         <f ca="1">RAND()</f>
-        <v>0.66395994088770816</v>
+        <v>0.45775202330539522</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C48">
         <f ca="1">RAND()</f>
-        <v>0.51975527633899543</v>
+        <v>0.3092205557800537</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C49">
         <f ca="1">RAND()</f>
-        <v>0.23385707405432365</v>
+        <v>0.12816086888997058</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="C50">
         <f ca="1">RAND()</f>
-        <v>0.96796141814541914</v>
+        <v>0.14087805204482839</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C51">
         <f ca="1">RAND()</f>
-        <v>0.75672809403344277</v>
+        <v>0.13115664774582092</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C52">
         <f ca="1">RAND()</f>
-        <v>9.633418560796092E-2</v>
+        <v>0.69762310503490155</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="C53">
         <f t="shared" ref="C53:C56" ca="1" si="0">RAND()</f>
-        <v>0.37264561135397067</v>
+        <v>0.92593497625285592</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41004206696143153</v>
+        <v>0.36768900831913731</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88685341270662132</v>
+        <v>0.57261015632054379</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C56">
         <f ca="1">RAND()</f>
-        <v>9.0133601048448808E-3</v>
+        <v>0.92726047157411084</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C57">
         <f ca="1">RAND()</f>
-        <v>0.60882524818628825</v>
+        <v>1.843641818614683E-2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="C58">
         <f ca="1">RAND()</f>
-        <v>0.13871212133592592</v>
+        <v>0.15089883121813208</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="C59">
         <f t="shared" ref="C59:C76" ca="1" si="1">RAND()</f>
-        <v>0.88319477056665452</v>
+        <v>7.0621338257598198E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8154915288386806E-2</v>
+        <v>0.19954080954464803</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9763990263186727</v>
+        <v>0.88786361554771709</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75238983235822443</v>
+        <v>2.3907800944661606E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28138779398524283</v>
+        <v>0.75615833841409907</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3684417631248148</v>
+        <v>0.1032571054741418</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51581225547452558</v>
+        <v>0.4203766026211454</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89128461402930492</v>
+        <v>0.51176880887241072</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43981422130020775</v>
+        <v>0.29150092305028252</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33161485739558438</v>
+        <v>0.52973060709696429</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23590459640679506</v>
+        <v>4.6785797464341528E-3</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34502957171740423</v>
+        <v>0.36296835175507691</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1272394454782155E-2</v>
+        <v>0.99213708055474659</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13078061385738737</v>
+        <v>0.24508679796410049</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3883263559065622E-2</v>
+        <v>0.56380651937649717</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40239546641095703</v>
+        <v>0.72187989402378749</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48024634575274883</v>
+        <v>0.9651064347119932</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="C76">
         <f ca="1">RAND()</f>
-        <v>0.26321124184824174</v>
+        <v>0.70320042146591522</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="C77">
         <f ca="1">RAND()</f>
-        <v>0.41172653060208986</v>
+        <v>0.58048925830596476</v>
       </c>
     </row>
   </sheetData>

--- a/Meet up without Smartphone.xlsx
+++ b/Meet up without Smartphone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a3b79f03f0dba045/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75F69CBE-C854-2643-81E4-CE3FE7C4D903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA607F21-91A0-4D43-8EA1-4B34B980B74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5000" yWindow="2720" windowWidth="7500" windowHeight="7360" xr2:uid="{169A6EB1-7A6B-433D-89FD-4BB47D2FE302}"/>
   </bookViews>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Theme</t>
   </si>
@@ -125,9 +124,6 @@
     <t>クリスマスといえば</t>
   </si>
   <si>
-    <t>タピオカ屋さんといえば</t>
-  </si>
-  <si>
     <t>商店街といえば</t>
   </si>
   <si>
@@ -273,6 +269,12 @@
   </si>
   <si>
     <t>銀行といえば</t>
+  </si>
+  <si>
+    <t>古澤くんといえば</t>
+  </si>
+  <si>
+    <t>バッティングセンター(秋葉原を除く)といえば？</t>
   </si>
 </sst>
 </file>
@@ -625,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B45CA0D-835A-4717-9A09-7E32BADC7300}">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -653,7 +655,7 @@
       </c>
       <c r="C2">
         <f ca="1">RAND()</f>
-        <v>0.34059179004509821</v>
+        <v>0.27996704890850843</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -662,7 +664,7 @@
       </c>
       <c r="C3">
         <f ca="1">RAND()</f>
-        <v>0.31127417338853813</v>
+        <v>0.29395152269251623</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -671,7 +673,7 @@
       </c>
       <c r="C4">
         <f ca="1">RAND()</f>
-        <v>9.9202273007544917E-2</v>
+        <v>0.61326789811384974</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -680,7 +682,7 @@
       </c>
       <c r="C5">
         <f ca="1">RAND()</f>
-        <v>0.26886153140181657</v>
+        <v>0.75566958265448425</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -689,7 +691,7 @@
       </c>
       <c r="C6">
         <f ca="1">RAND()</f>
-        <v>0.22173267478630021</v>
+        <v>0.53967244450902629</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -698,7 +700,7 @@
       </c>
       <c r="C7">
         <f ca="1">RAND()</f>
-        <v>7.3723348987135839E-2</v>
+        <v>0.68110424607187781</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -707,7 +709,7 @@
       </c>
       <c r="C8">
         <f ca="1">RAND()</f>
-        <v>0.62616273200080419</v>
+        <v>2.0977533024653661E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -716,7 +718,7 @@
       </c>
       <c r="C9">
         <f ca="1">RAND()</f>
-        <v>0.67643672061669102</v>
+        <v>0.59260802595609041</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -725,7 +727,7 @@
       </c>
       <c r="C10">
         <f ca="1">RAND()</f>
-        <v>0.58418846046288009</v>
+        <v>0.16771069846492337</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -734,7 +736,7 @@
       </c>
       <c r="C11">
         <f ca="1">RAND()</f>
-        <v>0.44264139588341367</v>
+        <v>0.83520200963358626</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -743,7 +745,7 @@
       </c>
       <c r="C12">
         <f ca="1">RAND()</f>
-        <v>0.73762311121694268</v>
+        <v>0.52337882981080797</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -752,7 +754,7 @@
       </c>
       <c r="C13">
         <f ca="1">RAND()</f>
-        <v>0.70987078341230925</v>
+        <v>0.61229912817906562</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -761,7 +763,7 @@
       </c>
       <c r="C14">
         <f ca="1">RAND()</f>
-        <v>0.34987747727930241</v>
+        <v>0.63465808016882419</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -770,7 +772,7 @@
       </c>
       <c r="C15">
         <f ca="1">RAND()</f>
-        <v>0.83930213086865857</v>
+        <v>0.40122287458171368</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -779,7 +781,7 @@
       </c>
       <c r="C16">
         <f ca="1">RAND()</f>
-        <v>0.31495799726235951</v>
+        <v>0.2087721697085736</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -788,7 +790,7 @@
       </c>
       <c r="C17">
         <f ca="1">RAND()</f>
-        <v>6.8742960402603526E-2</v>
+        <v>0.64900409493939448</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -797,7 +799,7 @@
       </c>
       <c r="C18">
         <f ca="1">RAND()</f>
-        <v>0.80961841139460089</v>
+        <v>9.0159636963243028E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -806,7 +808,7 @@
       </c>
       <c r="C19">
         <f ca="1">RAND()</f>
-        <v>0.73449527201609632</v>
+        <v>0.47572422386538138</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -815,7 +817,7 @@
       </c>
       <c r="C20">
         <f ca="1">RAND()</f>
-        <v>0.19446455390573136</v>
+        <v>0.49401401943000778</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -824,7 +826,7 @@
       </c>
       <c r="C21">
         <f ca="1">RAND()</f>
-        <v>0.48709917705152894</v>
+        <v>0.72440767917220372</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -833,7 +835,7 @@
       </c>
       <c r="C22">
         <f ca="1">RAND()</f>
-        <v>0.88565628670846319</v>
+        <v>0.89203914027054876</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -842,7 +844,7 @@
       </c>
       <c r="C23">
         <f ca="1">RAND()</f>
-        <v>0.32115032282200429</v>
+        <v>0.31689550441910963</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -851,7 +853,7 @@
       </c>
       <c r="C24">
         <f ca="1">RAND()</f>
-        <v>0.57807121814564655</v>
+        <v>0.54087888953246488</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -860,7 +862,7 @@
       </c>
       <c r="C25">
         <f ca="1">RAND()</f>
-        <v>0.99017407513538347</v>
+        <v>0.11203450736792486</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -869,7 +871,7 @@
       </c>
       <c r="C26">
         <f ca="1">RAND()</f>
-        <v>0.31322461060020645</v>
+        <v>0.60290305320336379</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -878,7 +880,7 @@
       </c>
       <c r="C27">
         <f ca="1">RAND()</f>
-        <v>0.31999239874065788</v>
+        <v>7.2103423853372983E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -887,7 +889,7 @@
       </c>
       <c r="C28">
         <f ca="1">RAND()</f>
-        <v>0.60784909235683893</v>
+        <v>0.32459370239733587</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -896,7 +898,7 @@
       </c>
       <c r="C29">
         <f ca="1">RAND()</f>
-        <v>0.96951116397352355</v>
+        <v>0.40151434465494584</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -905,7 +907,7 @@
       </c>
       <c r="C30">
         <f ca="1">RAND()</f>
-        <v>0.13934021937455598</v>
+        <v>0.51985342188711603</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -914,7 +916,7 @@
       </c>
       <c r="C31">
         <f ca="1">RAND()</f>
-        <v>0.10079074267245824</v>
+        <v>0.18681653364085027</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -923,7 +925,7 @@
       </c>
       <c r="C32">
         <f ca="1">RAND()</f>
-        <v>0.75651222288172504</v>
+        <v>0.75164721603511797</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -932,7 +934,7 @@
       </c>
       <c r="C33">
         <f ca="1">RAND()</f>
-        <v>9.9697331203204564E-3</v>
+        <v>0.70465785737248432</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -941,7 +943,7 @@
       </c>
       <c r="C34">
         <f ca="1">RAND()</f>
-        <v>0.26092979873946398</v>
+        <v>0.98798987932971738</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -950,7 +952,7 @@
       </c>
       <c r="C35">
         <f ca="1">RAND()</f>
-        <v>0.81494765644452927</v>
+        <v>0.87464881576817233</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -959,7 +961,7 @@
       </c>
       <c r="C36">
         <f ca="1">RAND()</f>
-        <v>0.62086095922780293</v>
+        <v>0.61940000956406815</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -968,7 +970,7 @@
       </c>
       <c r="C37">
         <f ca="1">RAND()</f>
-        <v>0.28348113414609466</v>
+        <v>0.65473234127806934</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -977,7 +979,7 @@
       </c>
       <c r="C38">
         <f ca="1">RAND()</f>
-        <v>0.68460505242882286</v>
+        <v>0.42635201910645448</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -986,7 +988,7 @@
       </c>
       <c r="C39">
         <f ca="1">RAND()</f>
-        <v>0.11819455100040632</v>
+        <v>0.36169779038484373</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -995,7 +997,7 @@
       </c>
       <c r="C40">
         <f ca="1">RAND()</f>
-        <v>0.38965851461330059</v>
+        <v>0.19328976175410961</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1004,7 +1006,7 @@
       </c>
       <c r="C41">
         <f ca="1">RAND()</f>
-        <v>0.94243065708010898</v>
+        <v>0.13368973742602464</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1013,7 +1015,7 @@
       </c>
       <c r="C42">
         <f ca="1">RAND()</f>
-        <v>0.7250604308995573</v>
+        <v>0.49238207551399815</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1022,7 +1024,7 @@
       </c>
       <c r="C43">
         <f ca="1">RAND()</f>
-        <v>9.0875694340041502E-2</v>
+        <v>0.13268904728585296</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1031,7 +1033,7 @@
       </c>
       <c r="C44">
         <f ca="1">RAND()</f>
-        <v>0.41885581996554655</v>
+        <v>0.50753731905751753</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1040,7 +1042,7 @@
       </c>
       <c r="C45">
         <f ca="1">RAND()</f>
-        <v>0.74297900260638206</v>
+        <v>4.6812827672267132E-2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1049,7 +1051,7 @@
       </c>
       <c r="C46">
         <f ca="1">RAND()</f>
-        <v>0.38967796504220886</v>
+        <v>0.57626392477404809</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1058,7 +1060,7 @@
       </c>
       <c r="C47">
         <f ca="1">RAND()</f>
-        <v>0.45775202330539522</v>
+        <v>0.62923279870047488</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1067,7 +1069,7 @@
       </c>
       <c r="C48">
         <f ca="1">RAND()</f>
-        <v>0.3092205557800537</v>
+        <v>0.48065289463026606</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1076,7 +1078,7 @@
       </c>
       <c r="C49">
         <f ca="1">RAND()</f>
-        <v>0.12816086888997058</v>
+        <v>0.55177234599640479</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1085,7 +1087,7 @@
       </c>
       <c r="C50">
         <f ca="1">RAND()</f>
-        <v>0.14087805204482839</v>
+        <v>0.6775425502913961</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1094,7 +1096,7 @@
       </c>
       <c r="C51">
         <f ca="1">RAND()</f>
-        <v>0.13115664774582092</v>
+        <v>0.60577477954558712</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1102,26 +1104,26 @@
         <v>53</v>
       </c>
       <c r="C52">
-        <f ca="1">RAND()</f>
-        <v>0.69762310503490155</v>
+        <f t="shared" ref="C52:C55" ca="1" si="0">RAND()</f>
+        <v>0.23143590517462997</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C53">
-        <f t="shared" ref="C53:C56" ca="1" si="0">RAND()</f>
-        <v>0.92593497625285592</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1804601983693161E-2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36768900831913731</v>
+        <v>0.97145611012527511</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1129,8 +1131,8 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.57261015632054379</v>
+        <f ca="1">RAND()</f>
+        <v>0.24439012843564845</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1139,7 +1141,7 @@
       </c>
       <c r="C56">
         <f ca="1">RAND()</f>
-        <v>0.92726047157411084</v>
+        <v>4.0634096366545247E-3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1148,34 +1150,34 @@
       </c>
       <c r="C57">
         <f ca="1">RAND()</f>
-        <v>1.843641818614683E-2</v>
+        <v>0.97059367377930361</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C58">
-        <f ca="1">RAND()</f>
-        <v>0.15089883121813208</v>
+        <f t="shared" ref="C58:C75" ca="1" si="1">RAND()</f>
+        <v>0.71937564650533303</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C59">
-        <f t="shared" ref="C59:C76" ca="1" si="1">RAND()</f>
-        <v>7.0621338257598198E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.68289735119793493</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19954080954464803</v>
+        <v>0.34779342270565838</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1184,7 +1186,7 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88786361554771709</v>
+        <v>0.75820343234731835</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1193,7 +1195,7 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3907800944661606E-2</v>
+        <v>0.78599769964301314</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1202,7 +1204,7 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75615833841409907</v>
+        <v>0.14936785335307146</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1211,7 +1213,7 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1032571054741418</v>
+        <v>0.66056653859757153</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1220,7 +1222,7 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4203766026211454</v>
+        <v>0.29279269233924021</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1229,25 +1231,25 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51176880887241072</v>
+        <v>0.62782139786295121</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29150092305028252</v>
+        <v>0.91685604101061546</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52973060709696429</v>
+        <v>0.86374190908841231</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1256,7 +1258,7 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6785797464341528E-3</v>
+        <v>0.46470605186843472</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1265,7 +1267,7 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36296835175507691</v>
+        <v>0.99264332652423604</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1274,16 +1276,16 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99213708055474659</v>
+        <v>0.60748343991640807</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24508679796410049</v>
+        <v>0.96791993549182087</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1292,7 +1294,7 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56380651937649717</v>
+        <v>0.82933276865624184</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1301,7 +1303,7 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72187989402378749</v>
+        <v>0.78310515601405994</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -1309,8 +1311,8 @@
         <v>76</v>
       </c>
       <c r="C75">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.9651064347119932</v>
+        <f ca="1">RAND()</f>
+        <v>0.69484535504071865</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -1319,7 +1321,7 @@
       </c>
       <c r="C76">
         <f ca="1">RAND()</f>
-        <v>0.70320042146591522</v>
+        <v>0.80439041240025722</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -1328,7 +1330,16 @@
       </c>
       <c r="C77">
         <f ca="1">RAND()</f>
-        <v>0.58048925830596476</v>
+        <v>0.65381002796438936</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78">
+        <f ca="1">RAND()</f>
+        <v>0.16431080156629307</v>
       </c>
     </row>
   </sheetData>

--- a/Meet up without Smartphone.xlsx
+++ b/Meet up without Smartphone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a3b79f03f0dba045/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA607F21-91A0-4D43-8EA1-4B34B980B74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A143FFF-10E3-A24F-B29C-95AEE20D6578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5000" yWindow="2720" windowWidth="7500" windowHeight="7360" xr2:uid="{169A6EB1-7A6B-433D-89FD-4BB47D2FE302}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Theme</t>
   </si>
@@ -238,15 +238,9 @@
     <t>Y!MAPの温泉・サウナマップの対象施設といえば</t>
   </si>
   <si>
-    <t>神社(靖国神社、浅草神社、明治神宮を除く)といえば</t>
-  </si>
-  <si>
     <t>広いところといえば</t>
   </si>
   <si>
-    <t>新聞社といえば</t>
-  </si>
-  <si>
     <t>船といえば</t>
   </si>
   <si>
@@ -275,6 +269,9 @@
   </si>
   <si>
     <t>バッティングセンター(秋葉原を除く)といえば？</t>
+  </si>
+  <si>
+    <t>神社(靖国神社、烏森神社、明治神宮を除く)といえば</t>
   </si>
 </sst>
 </file>
@@ -627,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B45CA0D-835A-4717-9A09-7E32BADC7300}">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -655,7 +652,7 @@
       </c>
       <c r="C2">
         <f ca="1">RAND()</f>
-        <v>0.27996704890850843</v>
+        <v>0.44290787261901288</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -664,7 +661,7 @@
       </c>
       <c r="C3">
         <f ca="1">RAND()</f>
-        <v>0.29395152269251623</v>
+        <v>0.68575826895951664</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -673,7 +670,7 @@
       </c>
       <c r="C4">
         <f ca="1">RAND()</f>
-        <v>0.61326789811384974</v>
+        <v>0.87012241738731499</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -682,7 +679,7 @@
       </c>
       <c r="C5">
         <f ca="1">RAND()</f>
-        <v>0.75566958265448425</v>
+        <v>0.46830058894064364</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -691,7 +688,7 @@
       </c>
       <c r="C6">
         <f ca="1">RAND()</f>
-        <v>0.53967244450902629</v>
+        <v>0.5952766960543493</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -700,7 +697,7 @@
       </c>
       <c r="C7">
         <f ca="1">RAND()</f>
-        <v>0.68110424607187781</v>
+        <v>0.30454185964431146</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -709,7 +706,7 @@
       </c>
       <c r="C8">
         <f ca="1">RAND()</f>
-        <v>2.0977533024653661E-2</v>
+        <v>0.3787633952808569</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -718,7 +715,7 @@
       </c>
       <c r="C9">
         <f ca="1">RAND()</f>
-        <v>0.59260802595609041</v>
+        <v>0.11436494376273054</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -727,7 +724,7 @@
       </c>
       <c r="C10">
         <f ca="1">RAND()</f>
-        <v>0.16771069846492337</v>
+        <v>0.90678770345187365</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -736,7 +733,7 @@
       </c>
       <c r="C11">
         <f ca="1">RAND()</f>
-        <v>0.83520200963358626</v>
+        <v>0.96600146644302165</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -745,7 +742,7 @@
       </c>
       <c r="C12">
         <f ca="1">RAND()</f>
-        <v>0.52337882981080797</v>
+        <v>0.2041429140082055</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -754,7 +751,7 @@
       </c>
       <c r="C13">
         <f ca="1">RAND()</f>
-        <v>0.61229912817906562</v>
+        <v>0.13013003123251188</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -763,7 +760,7 @@
       </c>
       <c r="C14">
         <f ca="1">RAND()</f>
-        <v>0.63465808016882419</v>
+        <v>0.19234065373536113</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -772,7 +769,7 @@
       </c>
       <c r="C15">
         <f ca="1">RAND()</f>
-        <v>0.40122287458171368</v>
+        <v>0.50956488959447943</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -781,7 +778,7 @@
       </c>
       <c r="C16">
         <f ca="1">RAND()</f>
-        <v>0.2087721697085736</v>
+        <v>0.2607557788698649</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -790,7 +787,7 @@
       </c>
       <c r="C17">
         <f ca="1">RAND()</f>
-        <v>0.64900409493939448</v>
+        <v>0.70679334616624812</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -799,7 +796,7 @@
       </c>
       <c r="C18">
         <f ca="1">RAND()</f>
-        <v>9.0159636963243028E-2</v>
+        <v>0.73802368399859308</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -808,7 +805,7 @@
       </c>
       <c r="C19">
         <f ca="1">RAND()</f>
-        <v>0.47572422386538138</v>
+        <v>0.32676166759670511</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -817,7 +814,7 @@
       </c>
       <c r="C20">
         <f ca="1">RAND()</f>
-        <v>0.49401401943000778</v>
+        <v>0.68453530916694694</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -826,7 +823,7 @@
       </c>
       <c r="C21">
         <f ca="1">RAND()</f>
-        <v>0.72440767917220372</v>
+        <v>0.16072830133256422</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -835,7 +832,7 @@
       </c>
       <c r="C22">
         <f ca="1">RAND()</f>
-        <v>0.89203914027054876</v>
+        <v>0.41645915794692201</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -844,7 +841,7 @@
       </c>
       <c r="C23">
         <f ca="1">RAND()</f>
-        <v>0.31689550441910963</v>
+        <v>0.90308224331515574</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -853,7 +850,7 @@
       </c>
       <c r="C24">
         <f ca="1">RAND()</f>
-        <v>0.54087888953246488</v>
+        <v>0.86670620959690758</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -862,7 +859,7 @@
       </c>
       <c r="C25">
         <f ca="1">RAND()</f>
-        <v>0.11203450736792486</v>
+        <v>0.26019217425815855</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -871,7 +868,7 @@
       </c>
       <c r="C26">
         <f ca="1">RAND()</f>
-        <v>0.60290305320336379</v>
+        <v>0.46615009881122371</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -880,7 +877,7 @@
       </c>
       <c r="C27">
         <f ca="1">RAND()</f>
-        <v>7.2103423853372983E-2</v>
+        <v>0.92498832916678608</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -889,7 +886,7 @@
       </c>
       <c r="C28">
         <f ca="1">RAND()</f>
-        <v>0.32459370239733587</v>
+        <v>0.57129359453669948</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -898,7 +895,7 @@
       </c>
       <c r="C29">
         <f ca="1">RAND()</f>
-        <v>0.40151434465494584</v>
+        <v>0.73635032464942574</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -907,7 +904,7 @@
       </c>
       <c r="C30">
         <f ca="1">RAND()</f>
-        <v>0.51985342188711603</v>
+        <v>0.24357555026488709</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -916,7 +913,7 @@
       </c>
       <c r="C31">
         <f ca="1">RAND()</f>
-        <v>0.18681653364085027</v>
+        <v>0.35359196124019576</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -925,7 +922,7 @@
       </c>
       <c r="C32">
         <f ca="1">RAND()</f>
-        <v>0.75164721603511797</v>
+        <v>5.688415308879391E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -934,7 +931,7 @@
       </c>
       <c r="C33">
         <f ca="1">RAND()</f>
-        <v>0.70465785737248432</v>
+        <v>0.77192263125675509</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -943,7 +940,7 @@
       </c>
       <c r="C34">
         <f ca="1">RAND()</f>
-        <v>0.98798987932971738</v>
+        <v>0.70330271583937676</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -952,7 +949,7 @@
       </c>
       <c r="C35">
         <f ca="1">RAND()</f>
-        <v>0.87464881576817233</v>
+        <v>0.76112911028616892</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -961,7 +958,7 @@
       </c>
       <c r="C36">
         <f ca="1">RAND()</f>
-        <v>0.61940000956406815</v>
+        <v>0.92046408784035294</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -970,7 +967,7 @@
       </c>
       <c r="C37">
         <f ca="1">RAND()</f>
-        <v>0.65473234127806934</v>
+        <v>0.47991352306135382</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -979,7 +976,7 @@
       </c>
       <c r="C38">
         <f ca="1">RAND()</f>
-        <v>0.42635201910645448</v>
+        <v>0.52138543404816773</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -988,7 +985,7 @@
       </c>
       <c r="C39">
         <f ca="1">RAND()</f>
-        <v>0.36169779038484373</v>
+        <v>9.0925125049707733E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -997,7 +994,7 @@
       </c>
       <c r="C40">
         <f ca="1">RAND()</f>
-        <v>0.19328976175410961</v>
+        <v>0.2298302118902551</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1006,7 +1003,7 @@
       </c>
       <c r="C41">
         <f ca="1">RAND()</f>
-        <v>0.13368973742602464</v>
+        <v>0.41603078338723476</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1015,7 +1012,7 @@
       </c>
       <c r="C42">
         <f ca="1">RAND()</f>
-        <v>0.49238207551399815</v>
+        <v>0.55437170490795862</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1024,7 +1021,7 @@
       </c>
       <c r="C43">
         <f ca="1">RAND()</f>
-        <v>0.13268904728585296</v>
+        <v>0.56687060852851801</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1033,7 +1030,7 @@
       </c>
       <c r="C44">
         <f ca="1">RAND()</f>
-        <v>0.50753731905751753</v>
+        <v>0.51747504660617438</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1042,7 +1039,7 @@
       </c>
       <c r="C45">
         <f ca="1">RAND()</f>
-        <v>4.6812827672267132E-2</v>
+        <v>0.36926817241757859</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1051,7 +1048,7 @@
       </c>
       <c r="C46">
         <f ca="1">RAND()</f>
-        <v>0.57626392477404809</v>
+        <v>8.535174690109526E-2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1060,7 +1057,7 @@
       </c>
       <c r="C47">
         <f ca="1">RAND()</f>
-        <v>0.62923279870047488</v>
+        <v>6.5207883764733965E-2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1069,7 +1066,7 @@
       </c>
       <c r="C48">
         <f ca="1">RAND()</f>
-        <v>0.48065289463026606</v>
+        <v>0.29702085103193321</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1078,7 +1075,7 @@
       </c>
       <c r="C49">
         <f ca="1">RAND()</f>
-        <v>0.55177234599640479</v>
+        <v>0.27145809426613587</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1087,7 +1084,7 @@
       </c>
       <c r="C50">
         <f ca="1">RAND()</f>
-        <v>0.6775425502913961</v>
+        <v>0.14260751336538646</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1096,7 +1093,7 @@
       </c>
       <c r="C51">
         <f ca="1">RAND()</f>
-        <v>0.60577477954558712</v>
+        <v>0.74737871605066342</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1105,16 +1102,16 @@
       </c>
       <c r="C52">
         <f t="shared" ref="C52:C55" ca="1" si="0">RAND()</f>
-        <v>0.23143590517462997</v>
+        <v>0.79765259669072119</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1804601983693161E-2</v>
+        <v>4.348139887843816E-2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1123,7 +1120,7 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97145611012527511</v>
+        <v>0.72202025813047355</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1132,7 +1129,7 @@
       </c>
       <c r="C55">
         <f ca="1">RAND()</f>
-        <v>0.24439012843564845</v>
+        <v>0.34293503225888944</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1141,7 +1138,7 @@
       </c>
       <c r="C56">
         <f ca="1">RAND()</f>
-        <v>4.0634096366545247E-3</v>
+        <v>0.47083454596329344</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1150,16 +1147,16 @@
       </c>
       <c r="C57">
         <f ca="1">RAND()</f>
-        <v>0.97059367377930361</v>
+        <v>0.25637922621267217</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:C75" ca="1" si="1">RAND()</f>
-        <v>0.71937564650533303</v>
+        <f t="shared" ref="C58:C73" ca="1" si="1">RAND()</f>
+        <v>0.41748727402451857</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1168,7 +1165,7 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68289735119793493</v>
+        <v>0.93141325779749307</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1177,7 +1174,7 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34779342270565838</v>
+        <v>0.3245396256112093</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1186,7 +1183,7 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75820343234731835</v>
+        <v>0.2016041097282697</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1195,7 +1192,7 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78599769964301314</v>
+        <v>0.21677079697011448</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1204,7 +1201,7 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14936785335307146</v>
+        <v>0.6186020325270668</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1213,7 +1210,7 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66056653859757153</v>
+        <v>0.95153300872018898</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1221,8 +1218,8 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.29279269233924021</v>
+        <f ca="1">RAND()</f>
+        <v>0.34657850436433546</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1231,7 +1228,7 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62782139786295121</v>
+        <v>0.53586809164399307</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1240,34 +1237,34 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91685604101061546</v>
+        <v>7.8519474926524446E-2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86374190908841231</v>
+        <v>0.70362093240467538</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46470605186843472</v>
+        <v>9.3824126187412871E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99264332652423604</v>
+        <v>0.79150050722247856</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1276,70 +1273,61 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60748343991640807</v>
+        <v>0.3035313089455185</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96791993549182087</v>
+        <v>0.74588412406072857</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82933276865624184</v>
+        <v>0.26069444368974781</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C74">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.78310515601405994</v>
+        <f ca="1">RAND()</f>
+        <v>0.29229063661955146</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C75">
         <f ca="1">RAND()</f>
-        <v>0.69484535504071865</v>
+        <v>8.5330910871993293E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76">
         <f ca="1">RAND()</f>
-        <v>0.80439041240025722</v>
+        <v>0.68933120407513782</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C77">
         <f ca="1">RAND()</f>
-        <v>0.65381002796438936</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78">
-        <f ca="1">RAND()</f>
-        <v>0.16431080156629307</v>
+        <v>0.21026539442169134</v>
       </c>
     </row>
   </sheetData>

--- a/Meet up without Smartphone.xlsx
+++ b/Meet up without Smartphone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a3b79f03f0dba045/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A143FFF-10E3-A24F-B29C-95AEE20D6578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0378BF0B-9DEE-8544-A6F2-EA7D5CAA9B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5000" yWindow="2720" windowWidth="7500" windowHeight="7360" xr2:uid="{169A6EB1-7A6B-433D-89FD-4BB47D2FE302}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="79">
   <si>
     <t>Theme</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>歩道橋といえば</t>
-  </si>
-  <si>
-    <t>エスカレーターといえば</t>
   </si>
   <si>
     <t>イルミネーションといえば</t>
@@ -624,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B45CA0D-835A-4717-9A09-7E32BADC7300}">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -652,7 +649,7 @@
       </c>
       <c r="C2">
         <f ca="1">RAND()</f>
-        <v>0.44290787261901288</v>
+        <v>5.7662447151303753E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -661,7 +658,7 @@
       </c>
       <c r="C3">
         <f ca="1">RAND()</f>
-        <v>0.68575826895951664</v>
+        <v>0.1466785604365074</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -670,7 +667,7 @@
       </c>
       <c r="C4">
         <f ca="1">RAND()</f>
-        <v>0.87012241738731499</v>
+        <v>0.88753824646266544</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -679,7 +676,7 @@
       </c>
       <c r="C5">
         <f ca="1">RAND()</f>
-        <v>0.46830058894064364</v>
+        <v>0.6784789083926015</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -688,7 +685,7 @@
       </c>
       <c r="C6">
         <f ca="1">RAND()</f>
-        <v>0.5952766960543493</v>
+        <v>0.7827263866065336</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -697,7 +694,7 @@
       </c>
       <c r="C7">
         <f ca="1">RAND()</f>
-        <v>0.30454185964431146</v>
+        <v>0.48436657894700152</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -706,7 +703,7 @@
       </c>
       <c r="C8">
         <f ca="1">RAND()</f>
-        <v>0.3787633952808569</v>
+        <v>0.28894459395867733</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -715,7 +712,7 @@
       </c>
       <c r="C9">
         <f ca="1">RAND()</f>
-        <v>0.11436494376273054</v>
+        <v>0.47283148631480643</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -724,7 +721,7 @@
       </c>
       <c r="C10">
         <f ca="1">RAND()</f>
-        <v>0.90678770345187365</v>
+        <v>0.27770355046377859</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -733,7 +730,7 @@
       </c>
       <c r="C11">
         <f ca="1">RAND()</f>
-        <v>0.96600146644302165</v>
+        <v>0.83877312166145002</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -742,7 +739,7 @@
       </c>
       <c r="C12">
         <f ca="1">RAND()</f>
-        <v>0.2041429140082055</v>
+        <v>0.9592488438353538</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -751,7 +748,7 @@
       </c>
       <c r="C13">
         <f ca="1">RAND()</f>
-        <v>0.13013003123251188</v>
+        <v>0.18856557257369144</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -760,7 +757,7 @@
       </c>
       <c r="C14">
         <f ca="1">RAND()</f>
-        <v>0.19234065373536113</v>
+        <v>0.58114091053409356</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -769,7 +766,7 @@
       </c>
       <c r="C15">
         <f ca="1">RAND()</f>
-        <v>0.50956488959447943</v>
+        <v>0.2439738747854483</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -778,7 +775,7 @@
       </c>
       <c r="C16">
         <f ca="1">RAND()</f>
-        <v>0.2607557788698649</v>
+        <v>0.83715689476482491</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -787,7 +784,7 @@
       </c>
       <c r="C17">
         <f ca="1">RAND()</f>
-        <v>0.70679334616624812</v>
+        <v>0.81264910428659731</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -796,7 +793,7 @@
       </c>
       <c r="C18">
         <f ca="1">RAND()</f>
-        <v>0.73802368399859308</v>
+        <v>0.79712330461205005</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -805,7 +802,7 @@
       </c>
       <c r="C19">
         <f ca="1">RAND()</f>
-        <v>0.32676166759670511</v>
+        <v>0.34231746267197194</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -814,7 +811,7 @@
       </c>
       <c r="C20">
         <f ca="1">RAND()</f>
-        <v>0.68453530916694694</v>
+        <v>0.34121059413720634</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -823,7 +820,7 @@
       </c>
       <c r="C21">
         <f ca="1">RAND()</f>
-        <v>0.16072830133256422</v>
+        <v>0.30928437750497084</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -832,7 +829,7 @@
       </c>
       <c r="C22">
         <f ca="1">RAND()</f>
-        <v>0.41645915794692201</v>
+        <v>0.50071582396490111</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -841,7 +838,7 @@
       </c>
       <c r="C23">
         <f ca="1">RAND()</f>
-        <v>0.90308224331515574</v>
+        <v>0.59539306973040684</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -850,7 +847,7 @@
       </c>
       <c r="C24">
         <f ca="1">RAND()</f>
-        <v>0.86670620959690758</v>
+        <v>0.52941686470431304</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -859,7 +856,7 @@
       </c>
       <c r="C25">
         <f ca="1">RAND()</f>
-        <v>0.26019217425815855</v>
+        <v>0.57648361334125497</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -868,7 +865,7 @@
       </c>
       <c r="C26">
         <f ca="1">RAND()</f>
-        <v>0.46615009881122371</v>
+        <v>0.35358693506185812</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -877,7 +874,7 @@
       </c>
       <c r="C27">
         <f ca="1">RAND()</f>
-        <v>0.92498832916678608</v>
+        <v>0.73695995849886686</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -886,7 +883,7 @@
       </c>
       <c r="C28">
         <f ca="1">RAND()</f>
-        <v>0.57129359453669948</v>
+        <v>0.7951211800622493</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -895,7 +892,7 @@
       </c>
       <c r="C29">
         <f ca="1">RAND()</f>
-        <v>0.73635032464942574</v>
+        <v>8.863511651010425E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -904,7 +901,7 @@
       </c>
       <c r="C30">
         <f ca="1">RAND()</f>
-        <v>0.24357555026488709</v>
+        <v>0.96731611409784046</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -913,7 +910,7 @@
       </c>
       <c r="C31">
         <f ca="1">RAND()</f>
-        <v>0.35359196124019576</v>
+        <v>0.18479522669635817</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -922,7 +919,7 @@
       </c>
       <c r="C32">
         <f ca="1">RAND()</f>
-        <v>5.688415308879391E-2</v>
+        <v>0.45149877289172291</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -931,7 +928,7 @@
       </c>
       <c r="C33">
         <f ca="1">RAND()</f>
-        <v>0.77192263125675509</v>
+        <v>0.7984933771852516</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -940,7 +937,7 @@
       </c>
       <c r="C34">
         <f ca="1">RAND()</f>
-        <v>0.70330271583937676</v>
+        <v>0.17349560574447664</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -949,7 +946,7 @@
       </c>
       <c r="C35">
         <f ca="1">RAND()</f>
-        <v>0.76112911028616892</v>
+        <v>0.13496828865607535</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -958,7 +955,7 @@
       </c>
       <c r="C36">
         <f ca="1">RAND()</f>
-        <v>0.92046408784035294</v>
+        <v>0.74497114502673889</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -967,7 +964,7 @@
       </c>
       <c r="C37">
         <f ca="1">RAND()</f>
-        <v>0.47991352306135382</v>
+        <v>0.2451303379244929</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -976,7 +973,7 @@
       </c>
       <c r="C38">
         <f ca="1">RAND()</f>
-        <v>0.52138543404816773</v>
+        <v>0.28965882417811628</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -985,7 +982,7 @@
       </c>
       <c r="C39">
         <f ca="1">RAND()</f>
-        <v>9.0925125049707733E-2</v>
+        <v>0.53100119762275222</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -994,7 +991,7 @@
       </c>
       <c r="C40">
         <f ca="1">RAND()</f>
-        <v>0.2298302118902551</v>
+        <v>0.5686868642231655</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1003,7 +1000,7 @@
       </c>
       <c r="C41">
         <f ca="1">RAND()</f>
-        <v>0.41603078338723476</v>
+        <v>0.24480096163701681</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1012,7 +1009,7 @@
       </c>
       <c r="C42">
         <f ca="1">RAND()</f>
-        <v>0.55437170490795862</v>
+        <v>0.31771155438699317</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1021,7 +1018,7 @@
       </c>
       <c r="C43">
         <f ca="1">RAND()</f>
-        <v>0.56687060852851801</v>
+        <v>0.12879706027101512</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1030,7 +1027,7 @@
       </c>
       <c r="C44">
         <f ca="1">RAND()</f>
-        <v>0.51747504660617438</v>
+        <v>0.91833761509018419</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1039,7 +1036,7 @@
       </c>
       <c r="C45">
         <f ca="1">RAND()</f>
-        <v>0.36926817241757859</v>
+        <v>2.4490713241967499E-2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1048,7 +1045,7 @@
       </c>
       <c r="C46">
         <f ca="1">RAND()</f>
-        <v>8.535174690109526E-2</v>
+        <v>0.88281242379053637</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1057,7 +1054,7 @@
       </c>
       <c r="C47">
         <f ca="1">RAND()</f>
-        <v>6.5207883764733965E-2</v>
+        <v>0.3121324672091671</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1066,7 +1063,7 @@
       </c>
       <c r="C48">
         <f ca="1">RAND()</f>
-        <v>0.29702085103193321</v>
+        <v>0.92847882105211987</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1075,7 +1072,7 @@
       </c>
       <c r="C49">
         <f ca="1">RAND()</f>
-        <v>0.27145809426613587</v>
+        <v>0.45027078543113319</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1084,7 +1081,7 @@
       </c>
       <c r="C50">
         <f ca="1">RAND()</f>
-        <v>0.14260751336538646</v>
+        <v>0.80204858669503509</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1092,26 +1089,26 @@
         <v>52</v>
       </c>
       <c r="C51">
-        <f ca="1">RAND()</f>
-        <v>0.74737871605066342</v>
+        <f t="shared" ref="C51:C54" ca="1" si="0">RAND()</f>
+        <v>0.44115217825318609</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52:C55" ca="1" si="0">RAND()</f>
-        <v>0.79765259669072119</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.57028150024497459</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>4.348139887843816E-2</v>
+        <v>0.56541802673897135</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1119,8 +1116,8 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.72202025813047355</v>
+        <f ca="1">RAND()</f>
+        <v>0.11049211497518441</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1129,7 +1126,7 @@
       </c>
       <c r="C55">
         <f ca="1">RAND()</f>
-        <v>0.34293503225888944</v>
+        <v>0.77527407695472672</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1138,34 +1135,34 @@
       </c>
       <c r="C56">
         <f ca="1">RAND()</f>
-        <v>0.47083454596329344</v>
+        <v>0.4503987622887996</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C57">
-        <f ca="1">RAND()</f>
-        <v>0.25637922621267217</v>
+        <f t="shared" ref="C57:C72" ca="1" si="1">RAND()</f>
+        <v>0.60308580392083388</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:C73" ca="1" si="1">RAND()</f>
-        <v>0.41748727402451857</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.28256248799891992</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93141325779749307</v>
+        <v>0.7888660773112669</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1174,7 +1171,7 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3245396256112093</v>
+        <v>0.75513242638270328</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1183,7 +1180,7 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2016041097282697</v>
+        <v>0.22576019219556187</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1192,7 +1189,7 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21677079697011448</v>
+        <v>0.69318565186136261</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1201,7 +1198,7 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6186020325270668</v>
+        <v>0.45583998432244599</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1209,8 +1206,8 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.95153300872018898</v>
+        <f ca="1">RAND()</f>
+        <v>3.7891404277776375E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1218,17 +1215,17 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <f ca="1">RAND()</f>
-        <v>0.34657850436433546</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.84883339047983808</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53586809164399307</v>
+        <v>0.44608796019479113</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1237,7 +1234,7 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8519474926524446E-2</v>
+        <v>0.2574875935938854</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1246,7 +1243,7 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70362093240467538</v>
+        <v>0.98730623591631073</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1255,16 +1252,16 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3824126187412871E-2</v>
+        <v>0.82270460864485961</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79150050722247856</v>
+        <v>0.19529059683206895</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1273,7 +1270,7 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3035313089455185</v>
+        <v>0.92348647357174907</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1282,7 +1279,7 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74588412406072857</v>
+        <v>0.12614522611448553</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1290,8 +1287,8 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.26069444368974781</v>
+        <f ca="1">RAND()</f>
+        <v>0.31239942657099218</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1300,7 +1297,7 @@
       </c>
       <c r="C74">
         <f ca="1">RAND()</f>
-        <v>0.29229063661955146</v>
+        <v>0.95133958090955184</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -1309,7 +1306,7 @@
       </c>
       <c r="C75">
         <f ca="1">RAND()</f>
-        <v>8.5330910871993293E-2</v>
+        <v>0.63116610965338182</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -1318,16 +1315,7 @@
       </c>
       <c r="C76">
         <f ca="1">RAND()</f>
-        <v>0.68933120407513782</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="C77">
-        <f ca="1">RAND()</f>
-        <v>0.21026539442169134</v>
+        <v>0.73840972377477543</v>
       </c>
     </row>
   </sheetData>

--- a/Meet up without Smartphone.xlsx
+++ b/Meet up without Smartphone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a3b79f03f0dba045/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0378BF0B-9DEE-8544-A6F2-EA7D5CAA9B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFBCEF0B-3DDB-A140-9335-006A59AE86DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5000" yWindow="2720" windowWidth="7500" windowHeight="7360" xr2:uid="{169A6EB1-7A6B-433D-89FD-4BB47D2FE302}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Theme</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>外国人にお勧めしたい場所といえば</t>
-  </si>
-  <si>
-    <t>郵便局といえば</t>
   </si>
   <si>
     <t>警察署といえば</t>
@@ -621,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B45CA0D-835A-4717-9A09-7E32BADC7300}">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -649,7 +646,7 @@
       </c>
       <c r="C2">
         <f ca="1">RAND()</f>
-        <v>5.7662447151303753E-2</v>
+        <v>0.10481457342059286</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -658,7 +655,7 @@
       </c>
       <c r="C3">
         <f ca="1">RAND()</f>
-        <v>0.1466785604365074</v>
+        <v>0.33859681129092523</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -667,7 +664,7 @@
       </c>
       <c r="C4">
         <f ca="1">RAND()</f>
-        <v>0.88753824646266544</v>
+        <v>0.79288874359312411</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -676,7 +673,7 @@
       </c>
       <c r="C5">
         <f ca="1">RAND()</f>
-        <v>0.6784789083926015</v>
+        <v>0.60254598267516923</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -685,7 +682,7 @@
       </c>
       <c r="C6">
         <f ca="1">RAND()</f>
-        <v>0.7827263866065336</v>
+        <v>0.17160911397918344</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -694,7 +691,7 @@
       </c>
       <c r="C7">
         <f ca="1">RAND()</f>
-        <v>0.48436657894700152</v>
+        <v>0.18645620361547188</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -703,7 +700,7 @@
       </c>
       <c r="C8">
         <f ca="1">RAND()</f>
-        <v>0.28894459395867733</v>
+        <v>0.40368311692394709</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -712,7 +709,7 @@
       </c>
       <c r="C9">
         <f ca="1">RAND()</f>
-        <v>0.47283148631480643</v>
+        <v>0.18660004542716446</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -721,7 +718,7 @@
       </c>
       <c r="C10">
         <f ca="1">RAND()</f>
-        <v>0.27770355046377859</v>
+        <v>0.19224654537209973</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -730,7 +727,7 @@
       </c>
       <c r="C11">
         <f ca="1">RAND()</f>
-        <v>0.83877312166145002</v>
+        <v>8.8087085538866683E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -739,7 +736,7 @@
       </c>
       <c r="C12">
         <f ca="1">RAND()</f>
-        <v>0.9592488438353538</v>
+        <v>0.74110999557679436</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -748,7 +745,7 @@
       </c>
       <c r="C13">
         <f ca="1">RAND()</f>
-        <v>0.18856557257369144</v>
+        <v>0.21288768817520309</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -757,7 +754,7 @@
       </c>
       <c r="C14">
         <f ca="1">RAND()</f>
-        <v>0.58114091053409356</v>
+        <v>0.79456102072089074</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -766,7 +763,7 @@
       </c>
       <c r="C15">
         <f ca="1">RAND()</f>
-        <v>0.2439738747854483</v>
+        <v>0.78216087927767231</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -775,7 +772,7 @@
       </c>
       <c r="C16">
         <f ca="1">RAND()</f>
-        <v>0.83715689476482491</v>
+        <v>5.3992617560115197E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -784,7 +781,7 @@
       </c>
       <c r="C17">
         <f ca="1">RAND()</f>
-        <v>0.81264910428659731</v>
+        <v>0.76550341282056711</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -793,34 +790,34 @@
       </c>
       <c r="C18">
         <f ca="1">RAND()</f>
-        <v>0.79712330461205005</v>
+        <v>0.62591614963935005</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <f ca="1">RAND()</f>
-        <v>0.34231746267197194</v>
+        <v>0.62528064180925835</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <f ca="1">RAND()</f>
-        <v>0.34121059413720634</v>
+        <v>0.28813558944703643</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <f ca="1">RAND()</f>
-        <v>0.30928437750497084</v>
+        <v>0.18770475644237383</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -829,7 +826,7 @@
       </c>
       <c r="C22">
         <f ca="1">RAND()</f>
-        <v>0.50071582396490111</v>
+        <v>0.90079755421694085</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -838,7 +835,7 @@
       </c>
       <c r="C23">
         <f ca="1">RAND()</f>
-        <v>0.59539306973040684</v>
+        <v>0.20327306610122176</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -847,7 +844,7 @@
       </c>
       <c r="C24">
         <f ca="1">RAND()</f>
-        <v>0.52941686470431304</v>
+        <v>0.29994356742079764</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -856,7 +853,7 @@
       </c>
       <c r="C25">
         <f ca="1">RAND()</f>
-        <v>0.57648361334125497</v>
+        <v>0.6583290255384312</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -865,7 +862,7 @@
       </c>
       <c r="C26">
         <f ca="1">RAND()</f>
-        <v>0.35358693506185812</v>
+        <v>0.54899169173712481</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -874,7 +871,7 @@
       </c>
       <c r="C27">
         <f ca="1">RAND()</f>
-        <v>0.73695995849886686</v>
+        <v>0.73237781428791793</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -883,7 +880,7 @@
       </c>
       <c r="C28">
         <f ca="1">RAND()</f>
-        <v>0.7951211800622493</v>
+        <v>0.42666743447295463</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -892,7 +889,7 @@
       </c>
       <c r="C29">
         <f ca="1">RAND()</f>
-        <v>8.863511651010425E-2</v>
+        <v>0.20948588683092906</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -901,7 +898,7 @@
       </c>
       <c r="C30">
         <f ca="1">RAND()</f>
-        <v>0.96731611409784046</v>
+        <v>8.2476692207720581E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -910,7 +907,7 @@
       </c>
       <c r="C31">
         <f ca="1">RAND()</f>
-        <v>0.18479522669635817</v>
+        <v>0.20545914368090601</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -919,7 +916,7 @@
       </c>
       <c r="C32">
         <f ca="1">RAND()</f>
-        <v>0.45149877289172291</v>
+        <v>0.29235934575788802</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -928,7 +925,7 @@
       </c>
       <c r="C33">
         <f ca="1">RAND()</f>
-        <v>0.7984933771852516</v>
+        <v>0.60531287056498273</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -937,7 +934,7 @@
       </c>
       <c r="C34">
         <f ca="1">RAND()</f>
-        <v>0.17349560574447664</v>
+        <v>0.65474307748816452</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -946,7 +943,7 @@
       </c>
       <c r="C35">
         <f ca="1">RAND()</f>
-        <v>0.13496828865607535</v>
+        <v>0.407080520995178</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -955,7 +952,7 @@
       </c>
       <c r="C36">
         <f ca="1">RAND()</f>
-        <v>0.74497114502673889</v>
+        <v>0.75980821090113349</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -964,7 +961,7 @@
       </c>
       <c r="C37">
         <f ca="1">RAND()</f>
-        <v>0.2451303379244929</v>
+        <v>0.95835400931227577</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -973,7 +970,7 @@
       </c>
       <c r="C38">
         <f ca="1">RAND()</f>
-        <v>0.28965882417811628</v>
+        <v>0.75156912221730798</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -982,7 +979,7 @@
       </c>
       <c r="C39">
         <f ca="1">RAND()</f>
-        <v>0.53100119762275222</v>
+        <v>0.51927907352327529</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -991,7 +988,7 @@
       </c>
       <c r="C40">
         <f ca="1">RAND()</f>
-        <v>0.5686868642231655</v>
+        <v>5.6195704886750297E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1000,7 +997,7 @@
       </c>
       <c r="C41">
         <f ca="1">RAND()</f>
-        <v>0.24480096163701681</v>
+        <v>0.10259269131559112</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1009,7 +1006,7 @@
       </c>
       <c r="C42">
         <f ca="1">RAND()</f>
-        <v>0.31771155438699317</v>
+        <v>4.2742267370849851E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1018,7 +1015,7 @@
       </c>
       <c r="C43">
         <f ca="1">RAND()</f>
-        <v>0.12879706027101512</v>
+        <v>0.44221561714951907</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1027,7 +1024,7 @@
       </c>
       <c r="C44">
         <f ca="1">RAND()</f>
-        <v>0.91833761509018419</v>
+        <v>0.50414763504920901</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1036,7 +1033,7 @@
       </c>
       <c r="C45">
         <f ca="1">RAND()</f>
-        <v>2.4490713241967499E-2</v>
+        <v>0.39995023628095472</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1045,7 +1042,7 @@
       </c>
       <c r="C46">
         <f ca="1">RAND()</f>
-        <v>0.88281242379053637</v>
+        <v>2.4702777006903709E-2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1054,7 +1051,7 @@
       </c>
       <c r="C47">
         <f ca="1">RAND()</f>
-        <v>0.3121324672091671</v>
+        <v>0.79462541600030656</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1063,7 +1060,7 @@
       </c>
       <c r="C48">
         <f ca="1">RAND()</f>
-        <v>0.92847882105211987</v>
+        <v>0.19428898106720205</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1072,7 +1069,7 @@
       </c>
       <c r="C49">
         <f ca="1">RAND()</f>
-        <v>0.45027078543113319</v>
+        <v>0.26451892736686933</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1080,26 +1077,26 @@
         <v>51</v>
       </c>
       <c r="C50">
-        <f ca="1">RAND()</f>
-        <v>0.80204858669503509</v>
+        <f t="shared" ref="C50:C53" ca="1" si="0">RAND()</f>
+        <v>2.2873918134891813E-2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="C51:C54" ca="1" si="0">RAND()</f>
-        <v>0.44115217825318609</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.0344595714253213E-2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57028150024497459</v>
+        <v>0.26592454284160727</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1107,8 +1104,8 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.56541802673897135</v>
+        <f ca="1">RAND()</f>
+        <v>0.32527839174466744</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1117,7 +1114,7 @@
       </c>
       <c r="C54">
         <f ca="1">RAND()</f>
-        <v>0.11049211497518441</v>
+        <v>0.11259926411339871</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1126,34 +1123,34 @@
       </c>
       <c r="C55">
         <f ca="1">RAND()</f>
-        <v>0.77527407695472672</v>
+        <v>0.92405232682574034</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C56">
-        <f ca="1">RAND()</f>
-        <v>0.4503987622887996</v>
+        <f t="shared" ref="C56:C71" ca="1" si="1">RAND()</f>
+        <v>0.80915239452643906</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:C72" ca="1" si="1">RAND()</f>
-        <v>0.60308580392083388</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.47553067555163631</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28256248799891992</v>
+        <v>0.7217416410105354</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1162,7 +1159,7 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7888660773112669</v>
+        <v>1.4302477329380059E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1171,7 +1168,7 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75513242638270328</v>
+        <v>0.71534807245314991</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1180,7 +1177,7 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22576019219556187</v>
+        <v>0.31549219726094646</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1189,7 +1186,7 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69318565186136261</v>
+        <v>0.43066204801165275</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1197,8 +1194,8 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.45583998432244599</v>
+        <f ca="1">RAND()</f>
+        <v>9.2785054201667716E-2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1206,17 +1203,17 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <f ca="1">RAND()</f>
-        <v>3.7891404277776375E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.91326778089792793</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84883339047983808</v>
+        <v>0.97771643871215219</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1225,7 +1222,7 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44608796019479113</v>
+        <v>0.17287578935813119</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1234,7 +1231,7 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2574875935938854</v>
+        <v>0.86121689125555889</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1243,16 +1240,16 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98730623591631073</v>
+        <v>8.3211389787740231E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82270460864485961</v>
+        <v>0.69887081784565797</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1261,7 +1258,7 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19529059683206895</v>
+        <v>0.9078121962818031</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1270,7 +1267,7 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92348647357174907</v>
+        <v>0.11326712899102143</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1278,8 +1275,8 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.12614522611448553</v>
+        <f ca="1">RAND()</f>
+        <v>0.31126632090702555</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1288,7 +1285,7 @@
       </c>
       <c r="C73">
         <f ca="1">RAND()</f>
-        <v>0.31239942657099218</v>
+        <v>0.26012253705542421</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1297,7 +1294,7 @@
       </c>
       <c r="C74">
         <f ca="1">RAND()</f>
-        <v>0.95133958090955184</v>
+        <v>0.94115837734538543</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -1306,16 +1303,7 @@
       </c>
       <c r="C75">
         <f ca="1">RAND()</f>
-        <v>0.63116610965338182</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="C76">
-        <f ca="1">RAND()</f>
-        <v>0.73840972377477543</v>
+        <v>0.65735856492362943</v>
       </c>
     </row>
   </sheetData>
